--- a/factoresA 100FINAL.xlsx
+++ b/factoresA 100FINAL.xlsx
@@ -579,13 +579,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>86.5406</v>
+        <v>89.496</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>89.5286</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>85</v>
+        <v>72.9871</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>85</v>
+        <v>89.52889999999999</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>350</v>
       </c>
       <c r="Q2">
-        <v>18792.43871302462</v>
+        <v>18701.86403099003</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -695,13 +695,13 @@
         <v>106.7612</v>
       </c>
       <c r="E3">
-        <v>29.4268</v>
+        <v>91.6114</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>91.64660000000001</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>85</v>
+        <v>9.5215</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>91.6474</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>400</v>
       </c>
       <c r="Q3">
-        <v>20703.67308506143</v>
+        <v>20570.73437107556</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -811,13 +811,13 @@
         <v>102.2129</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>8.1333</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>87.1292</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.3873</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>87.12479999999999</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>299.185</v>
       </c>
       <c r="Q4">
-        <v>14353.88320774092</v>
+        <v>14311.34377697217</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>107.2506</v>
       </c>
       <c r="E5">
-        <v>37.5353</v>
+        <v>92.1435</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>92.1467</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>85</v>
+        <v>16.1034</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85</v>
+        <v>92.1417</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>400</v>
       </c>
       <c r="Q5">
-        <v>21214.65115896086</v>
+        <v>21071.76799401257</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1043,13 +1043,13 @@
         <v>104.5617</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>35.0802</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>85</v>
+        <v>89.47020000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>43.9618</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>85</v>
+        <v>89.4114</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>400</v>
       </c>
       <c r="Q6">
-        <v>16365.79428550767</v>
+        <v>16276.97879335239</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>105.4437</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>51.2367</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>85</v>
+        <v>90.3473</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>61.8639</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>85</v>
+        <v>90.2799</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>400</v>
       </c>
       <c r="Q7">
-        <v>17484.02224453376</v>
+        <v>17377.75064110525</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1275,13 +1275,13 @@
         <v>106.8243</v>
       </c>
       <c r="E8">
-        <v>33.6697</v>
+        <v>91.72499999999999</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>91.7175</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>85</v>
+        <v>13.5477</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>85</v>
+        <v>91.6795</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>400</v>
       </c>
       <c r="Q8">
-        <v>20961.39822496892</v>
+        <v>20827.42832263636</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>107.202</v>
       </c>
       <c r="E9">
-        <v>37.4832</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>92.0941</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>85</v>
+        <v>16.2086</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>92.0806</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>400</v>
       </c>
       <c r="Q9">
-        <v>21209.09958651139</v>
+        <v>21067.3531445642</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1507,13 +1507,13 @@
         <v>105.4232</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>71.583</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>85</v>
+        <v>90.32599999999999</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>81.46299999999999</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>89.55410000000001</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>400</v>
       </c>
       <c r="Q10">
-        <v>18658.94500573997</v>
+        <v>18560.14498719651</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1758,16 +1758,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>90.83</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6958</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>85</v>
+        <v>74.04259999999999</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>85</v>
+        <v>90.8232</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>350</v>
       </c>
       <c r="Q2">
-        <v>19111.18950243757</v>
+        <v>18973.78354515607</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1868,13 +1868,13 @@
         <v>108.2448</v>
       </c>
       <c r="E3">
-        <v>33.4604</v>
+        <v>93.1088</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>93.13030000000001</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>85</v>
+        <v>9.096399999999999</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>93.125</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>400</v>
       </c>
       <c r="Q3">
-        <v>21019.87236322743</v>
+        <v>20857.31955878335</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1984,13 +1984,13 @@
         <v>103.3936</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>10.7759</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>88.3203</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>17.3991</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>88.30289999999999</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>298.544</v>
       </c>
       <c r="Q4">
-        <v>14713.62926558156</v>
+        <v>14647.39719343277</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2100,13 +2100,13 @@
         <v>108.6535</v>
       </c>
       <c r="E5">
-        <v>38.3587</v>
+        <v>93.5384</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>93.5558</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>85</v>
+        <v>12.7252</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85</v>
+        <v>93.5393</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>400</v>
       </c>
       <c r="Q5">
-        <v>21334.20013390664</v>
+        <v>21163.24998066605</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2216,13 +2216,13 @@
         <v>106.5382</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>44.2492</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>85</v>
+        <v>91.4491</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>57.0864</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>85</v>
+        <v>91.3882</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>400</v>
       </c>
       <c r="Q6">
-        <v>17252.09521416802</v>
+        <v>17123.72327340189</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>107.6978</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>65.764</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>85</v>
+        <v>92.60760000000001</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>80.91030000000001</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>85</v>
+        <v>92.53870000000001</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>400</v>
       </c>
       <c r="Q7">
-        <v>18739.51201667995</v>
+        <v>18588.04898216943</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2448,13 +2448,13 @@
         <v>108.8901</v>
       </c>
       <c r="E8">
-        <v>45.0231</v>
+        <v>93.7796</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>93.78400000000001</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>85</v>
+        <v>18.6492</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>85</v>
+        <v>93.8104</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>400</v>
       </c>
       <c r="Q8">
-        <v>21745.89554498302</v>
+        <v>21569.95187944175</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2564,13 +2564,13 @@
         <v>108.7247</v>
       </c>
       <c r="E9">
-        <v>39.6258</v>
+        <v>93.6123</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>93.6153</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>85</v>
+        <v>13.7801</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>93.6182</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>400</v>
       </c>
       <c r="Q9">
-        <v>21413.78794930843</v>
+        <v>21241.45363099061</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2680,13 +2680,13 @@
         <v>107.026</v>
       </c>
       <c r="E10">
-        <v>3.3215</v>
+        <v>75.0766</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>85</v>
+        <v>91.9361</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>91.30889999999999</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>400</v>
       </c>
       <c r="Q10">
-        <v>19150.59494868069</v>
+        <v>19018.14592938564</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2931,16 +2931,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>92.40349999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.2787</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>85</v>
+        <v>71.4949</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>85</v>
+        <v>92.38039999999999</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>350</v>
       </c>
       <c r="Q2">
-        <v>19258.09434559885</v>
+        <v>19071.89408312514</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -3041,13 +3041,13 @@
         <v>110.037</v>
       </c>
       <c r="E3">
-        <v>33.962</v>
+        <v>94.9028</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>94.92059999999999</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>85</v>
+        <v>4.2365</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>94.90219999999999</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>400</v>
       </c>
       <c r="Q3">
-        <v>21139.57554955205</v>
+        <v>20941.34860003837</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -3157,13 +3157,13 @@
         <v>104.8102</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>10.6077</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>89.7419</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>20.0597</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>89.7102</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>298.032</v>
       </c>
       <c r="Q4">
-        <v>14944.09681575123</v>
+        <v>14849.5764459974</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -3273,13 +3273,13 @@
         <v>110.2722</v>
       </c>
       <c r="E5">
-        <v>37.9341</v>
+        <v>95.1504</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>95.1735</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>85</v>
+        <v>7.4619</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85</v>
+        <v>95.14830000000001</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -3309,7 +3309,7 @@
         <v>400</v>
       </c>
       <c r="Q5">
-        <v>21389.66045613433</v>
+        <v>21186.44281356712</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>109.7677</v>
       </c>
       <c r="E7">
-        <v>2.4687</v>
+        <v>68.1887</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>85</v>
+        <v>94.68000000000001</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>85</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>400</v>
       </c>
       <c r="Q7">
-        <v>19236.50864007518</v>
+        <v>19043.70856186435</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -3621,13 +3621,13 @@
         <v>110.0625</v>
       </c>
       <c r="E8">
-        <v>35.3619</v>
+        <v>94.9434</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>94.9669</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>85</v>
+        <v>5.5237</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>85</v>
+        <v>94.928</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>400</v>
       </c>
       <c r="Q8">
-        <v>21224.84191595034</v>
+        <v>21025.89311725638</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         <v>110.4395</v>
       </c>
       <c r="E9">
-        <v>40.9678</v>
+        <v>95.31780000000001</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>95.3326</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>85</v>
+        <v>9.975099999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>95.3424</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>400</v>
       </c>
       <c r="Q9">
-        <v>21580.04675112481</v>
+        <v>21373.2974841398</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -3853,13 +3853,13 @@
         <v>108.9453</v>
       </c>
       <c r="E10">
-        <v>11.9298</v>
+        <v>79.6884</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>85</v>
+        <v>93.86669999999999</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>93.37479999999999</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>400</v>
       </c>
       <c r="Q10">
-        <v>19763.05980929878</v>
+        <v>19590.6459528958</v>
       </c>
       <c r="R10">
         <v>0</v>
